--- a/formula_checks.xlsx
+++ b/formula_checks.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janmarvingarbuszus/Source/openxlsx-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCC70C0-49DC-6442-8FC9-99334D0D5908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BA7D3E8-80EC-6B42-8233-FDDDF7C21BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11000" yWindow="760" windowWidth="15120" windowHeight="17580" activeTab="1" xr2:uid="{9015D7AF-8872-B947-A299-3CAF52021BB7}"/>
+    <workbookView xWindow="11000" yWindow="760" windowWidth="15120" windowHeight="17580" activeTab="2" xr2:uid="{9015D7AF-8872-B947-A299-3CAF52021BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -640,7 +641,7 @@
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -829,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2853D9-F93F-4440-ADA4-9D4902D5A8E7}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -918,4 +919,71 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EB53F0-B44F-8C47-89AB-59ACD912A85F}">
+  <dimension ref="A2:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>MIN(Table1[a])</f>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>MIN(Table1[[a]:[b]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>MIN(Table1[])</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>COUNTA(Table1[#Headers])</f>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>COUNTA(Table1[[#Data],[#Totals],[a]])</f>
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <f>COUNTA(Table1[[#All],[a]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>COUNTA(Table1[#Data])</f>
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <f>COUNTA(Table1[[#Headers],[#Data]])</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f>COUNTA(Table1[#All])</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f>COUNTA(Table1[#Totals])</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/formula_checks.xlsx
+++ b/formula_checks.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janmarvingarbuszus/Source/openxlsx-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BA7D3E8-80EC-6B42-8233-FDDDF7C21BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF4CD45A-815C-0C42-8162-27695FB72A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11000" yWindow="760" windowWidth="15120" windowHeight="17580" activeTab="2" xr2:uid="{9015D7AF-8872-B947-A299-3CAF52021BB7}"/>
+    <workbookView xWindow="11000" yWindow="760" windowWidth="15120" windowHeight="17580" activeTab="3" xr2:uid="{9015D7AF-8872-B947-A299-3CAF52021BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -197,8 +198,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -233,7 +235,7 @@
       <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -816,9 +818,9 @@
         <f>Sheet2!B2</f>
         <v>4</v>
       </c>
-      <c r="B5" t="e">
+      <c r="B5">
         <f>[1]Sheet3!A2</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -925,7 +927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EB53F0-B44F-8C47-89AB-59ACD912A85F}">
   <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -986,4 +988,253 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CC3AAC-A22A-EC4B-AB1F-37866601F610}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45470</v>
+      </c>
+      <c r="B6" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45470</v>
+      </c>
+      <c r="C6" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45470</v>
+      </c>
+      <c r="D6" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45470</v>
+      </c>
+      <c r="B8" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45470</v>
+      </c>
+      <c r="C8" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45470</v>
+      </c>
+      <c r="D8" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f t="shared" ref="A9:D12" ca="1" si="0">TODAY()</f>
+        <v>45470</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45470</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45470</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45470</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45470</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45470</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45470</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45470</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45470</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45470</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45470</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45470</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <f>A14+1</f>
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f>C14+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f>A14*1</f>
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f>A15+1</f>
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <f>C14*1</f>
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f>C15+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ref="B16:D19" si="1">A16+1</f>
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f>A16*1</f>
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <f>C16*1</f>
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f>A18*1</f>
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <f>C18*1</f>
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>